--- a/PowerBi/session_01_dataset.xlsx
+++ b/PowerBi/session_01_dataset.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\TrainerDoc\Programming\data_analytics\batch_01\Power BI\session_02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TrainerDoc\Programming\AI\mdad_b02\PowerBi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17600" windowHeight="5600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17604" windowHeight="5604"/>
   </bookViews>
   <sheets>
     <sheet name="demo_data" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="78">
   <si>
     <t>Model</t>
   </si>
@@ -241,6 +241,18 @@
   </si>
   <si>
     <t>Suresh</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>rraj@trymeyourself.com</t>
+  </si>
+  <si>
+    <t>Arjuna</t>
+  </si>
+  <si>
+    <t>arjuna@trymeyourself.com</t>
   </si>
 </sst>
 </file>
@@ -1048,13 +1060,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:Q80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="L80" sqref="L80"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1107,7 +1125,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1160,7 +1178,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1213,7 +1231,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1266,7 +1284,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1319,7 +1337,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1372,7 +1390,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1425,7 +1443,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1478,7 +1496,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1531,7 +1549,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1584,7 +1602,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1637,7 +1655,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1690,7 +1708,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1743,7 +1761,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1796,7 +1814,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1849,7 +1867,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1902,7 +1920,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1955,7 +1973,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -2008,7 +2026,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2061,7 +2079,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -2114,7 +2132,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>72</v>
       </c>
@@ -2167,7 +2185,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>72</v>
       </c>
@@ -2220,7 +2238,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>72</v>
       </c>
@@ -2273,7 +2291,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>72</v>
       </c>
@@ -2326,7 +2344,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>72</v>
       </c>
@@ -2379,7 +2397,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>72</v>
       </c>
@@ -2432,7 +2450,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>72</v>
       </c>
@@ -2485,7 +2503,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>72</v>
       </c>
@@ -2538,7 +2556,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>72</v>
       </c>
@@ -2591,7 +2609,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>72</v>
       </c>
@@ -2644,7 +2662,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>72</v>
       </c>
@@ -2697,7 +2715,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>72</v>
       </c>
@@ -2750,7 +2768,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>72</v>
       </c>
@@ -2803,7 +2821,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>72</v>
       </c>
@@ -2856,7 +2874,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>72</v>
       </c>
@@ -2909,7 +2927,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>72</v>
       </c>
@@ -2962,7 +2980,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>72</v>
       </c>
@@ -3015,7 +3033,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>72</v>
       </c>
@@ -3068,7 +3086,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>72</v>
       </c>
@@ -3119,6 +3137,2179 @@
       </c>
       <c r="Q39">
         <v>2250</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" t="s">
+        <v>21</v>
+      </c>
+      <c r="F40" t="s">
+        <v>21</v>
+      </c>
+      <c r="G40">
+        <v>8645420</v>
+      </c>
+      <c r="H40" t="s">
+        <v>22</v>
+      </c>
+      <c r="I40" t="s">
+        <v>23</v>
+      </c>
+      <c r="J40" t="s">
+        <v>24</v>
+      </c>
+      <c r="K40" t="s">
+        <v>25</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>20000</v>
+      </c>
+      <c r="N40" s="1">
+        <v>44621</v>
+      </c>
+      <c r="O40" t="s">
+        <v>74</v>
+      </c>
+      <c r="P40" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q40">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" t="s">
+        <v>30</v>
+      </c>
+      <c r="F41" t="s">
+        <v>30</v>
+      </c>
+      <c r="G41">
+        <v>8645421</v>
+      </c>
+      <c r="H41" t="s">
+        <v>41</v>
+      </c>
+      <c r="I41" t="s">
+        <v>31</v>
+      </c>
+      <c r="J41" t="s">
+        <v>32</v>
+      </c>
+      <c r="K41" t="s">
+        <v>43</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>21000</v>
+      </c>
+      <c r="N41" s="1">
+        <v>44621</v>
+      </c>
+      <c r="O41" t="s">
+        <v>74</v>
+      </c>
+      <c r="P41" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q41">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" t="s">
+        <v>71</v>
+      </c>
+      <c r="D42" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" t="s">
+        <v>36</v>
+      </c>
+      <c r="F42" t="s">
+        <v>36</v>
+      </c>
+      <c r="G42">
+        <v>8645422</v>
+      </c>
+      <c r="H42" t="s">
+        <v>22</v>
+      </c>
+      <c r="I42" t="s">
+        <v>37</v>
+      </c>
+      <c r="J42" t="s">
+        <v>24</v>
+      </c>
+      <c r="K42" t="s">
+        <v>54</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>22000</v>
+      </c>
+      <c r="N42" s="1">
+        <v>44621</v>
+      </c>
+      <c r="O42" t="s">
+        <v>74</v>
+      </c>
+      <c r="P42" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q42">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" t="s">
+        <v>40</v>
+      </c>
+      <c r="F43" t="s">
+        <v>40</v>
+      </c>
+      <c r="G43">
+        <v>8645423</v>
+      </c>
+      <c r="H43" t="s">
+        <v>41</v>
+      </c>
+      <c r="I43" t="s">
+        <v>45</v>
+      </c>
+      <c r="J43" t="s">
+        <v>24</v>
+      </c>
+      <c r="K43" t="s">
+        <v>62</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>23000</v>
+      </c>
+      <c r="N43" s="1">
+        <v>44621</v>
+      </c>
+      <c r="O43" t="s">
+        <v>74</v>
+      </c>
+      <c r="P43" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q43">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" t="s">
+        <v>75</v>
+      </c>
+      <c r="D44" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" t="s">
+        <v>21</v>
+      </c>
+      <c r="F44" t="s">
+        <v>21</v>
+      </c>
+      <c r="G44">
+        <v>8645424</v>
+      </c>
+      <c r="H44" t="s">
+        <v>22</v>
+      </c>
+      <c r="I44" t="s">
+        <v>42</v>
+      </c>
+      <c r="J44" t="s">
+        <v>32</v>
+      </c>
+      <c r="K44" t="s">
+        <v>33</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>24000</v>
+      </c>
+      <c r="N44" s="1">
+        <v>44621</v>
+      </c>
+      <c r="O44" t="s">
+        <v>74</v>
+      </c>
+      <c r="P44" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q44">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45" t="s">
+        <v>30</v>
+      </c>
+      <c r="F45" t="s">
+        <v>30</v>
+      </c>
+      <c r="G45">
+        <v>8645425</v>
+      </c>
+      <c r="H45" t="s">
+        <v>41</v>
+      </c>
+      <c r="I45" t="s">
+        <v>23</v>
+      </c>
+      <c r="J45" t="s">
+        <v>24</v>
+      </c>
+      <c r="K45" t="s">
+        <v>25</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>25000</v>
+      </c>
+      <c r="N45" s="1">
+        <v>44621</v>
+      </c>
+      <c r="O45" t="s">
+        <v>74</v>
+      </c>
+      <c r="P45" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q45">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>17</v>
+      </c>
+      <c r="B46" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" t="s">
+        <v>21</v>
+      </c>
+      <c r="F46" t="s">
+        <v>21</v>
+      </c>
+      <c r="G46">
+        <v>8645426</v>
+      </c>
+      <c r="H46" t="s">
+        <v>41</v>
+      </c>
+      <c r="I46" t="s">
+        <v>31</v>
+      </c>
+      <c r="J46" t="s">
+        <v>24</v>
+      </c>
+      <c r="K46" t="s">
+        <v>43</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>26000</v>
+      </c>
+      <c r="N46" s="1">
+        <v>44621</v>
+      </c>
+      <c r="O46" t="s">
+        <v>74</v>
+      </c>
+      <c r="P46" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q46">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47" t="s">
+        <v>60</v>
+      </c>
+      <c r="C47" t="s">
+        <v>61</v>
+      </c>
+      <c r="D47" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" t="s">
+        <v>40</v>
+      </c>
+      <c r="F47" t="s">
+        <v>40</v>
+      </c>
+      <c r="G47">
+        <v>8645427</v>
+      </c>
+      <c r="H47" t="s">
+        <v>22</v>
+      </c>
+      <c r="I47" t="s">
+        <v>37</v>
+      </c>
+      <c r="J47" t="s">
+        <v>24</v>
+      </c>
+      <c r="K47" t="s">
+        <v>33</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <v>27000</v>
+      </c>
+      <c r="N47" s="1">
+        <v>44621</v>
+      </c>
+      <c r="O47" t="s">
+        <v>74</v>
+      </c>
+      <c r="P47" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q47">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48" t="s">
+        <v>67</v>
+      </c>
+      <c r="D48" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48" t="s">
+        <v>30</v>
+      </c>
+      <c r="F48" t="s">
+        <v>30</v>
+      </c>
+      <c r="G48">
+        <v>8645428</v>
+      </c>
+      <c r="H48" t="s">
+        <v>41</v>
+      </c>
+      <c r="I48" t="s">
+        <v>31</v>
+      </c>
+      <c r="J48" t="s">
+        <v>24</v>
+      </c>
+      <c r="K48" t="s">
+        <v>62</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <v>28000</v>
+      </c>
+      <c r="N48" s="1">
+        <v>44621</v>
+      </c>
+      <c r="O48" t="s">
+        <v>74</v>
+      </c>
+      <c r="P48" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q48">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" t="s">
+        <v>68</v>
+      </c>
+      <c r="C49" t="s">
+        <v>69</v>
+      </c>
+      <c r="D49" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" t="s">
+        <v>18</v>
+      </c>
+      <c r="F49" t="s">
+        <v>18</v>
+      </c>
+      <c r="G49">
+        <v>8645429</v>
+      </c>
+      <c r="H49" t="s">
+        <v>22</v>
+      </c>
+      <c r="I49" t="s">
+        <v>37</v>
+      </c>
+      <c r="J49" t="s">
+        <v>24</v>
+      </c>
+      <c r="K49" t="s">
+        <v>54</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>29000</v>
+      </c>
+      <c r="N49" s="1">
+        <v>44621</v>
+      </c>
+      <c r="O49" t="s">
+        <v>74</v>
+      </c>
+      <c r="P49" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q49">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>17</v>
+      </c>
+      <c r="B50" t="s">
+        <v>76</v>
+      </c>
+      <c r="C50" t="s">
+        <v>77</v>
+      </c>
+      <c r="D50" t="s">
+        <v>20</v>
+      </c>
+      <c r="E50" t="s">
+        <v>21</v>
+      </c>
+      <c r="F50" t="s">
+        <v>21</v>
+      </c>
+      <c r="G50">
+        <v>8645430</v>
+      </c>
+      <c r="H50" t="s">
+        <v>22</v>
+      </c>
+      <c r="I50" t="s">
+        <v>45</v>
+      </c>
+      <c r="J50" t="s">
+        <v>32</v>
+      </c>
+      <c r="K50" t="s">
+        <v>33</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>30000</v>
+      </c>
+      <c r="N50" s="1">
+        <v>44621</v>
+      </c>
+      <c r="O50" t="s">
+        <v>74</v>
+      </c>
+      <c r="P50" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q50">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51" t="s">
+        <v>46</v>
+      </c>
+      <c r="C51" t="s">
+        <v>47</v>
+      </c>
+      <c r="D51" t="s">
+        <v>20</v>
+      </c>
+      <c r="E51" t="s">
+        <v>36</v>
+      </c>
+      <c r="F51" t="s">
+        <v>36</v>
+      </c>
+      <c r="G51">
+        <v>8645431</v>
+      </c>
+      <c r="H51" t="s">
+        <v>41</v>
+      </c>
+      <c r="I51" t="s">
+        <v>23</v>
+      </c>
+      <c r="J51" t="s">
+        <v>24</v>
+      </c>
+      <c r="K51" t="s">
+        <v>43</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <v>31000</v>
+      </c>
+      <c r="N51" s="1">
+        <v>44621</v>
+      </c>
+      <c r="O51" t="s">
+        <v>74</v>
+      </c>
+      <c r="P51" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q51">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>17</v>
+      </c>
+      <c r="B52" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" t="s">
+        <v>71</v>
+      </c>
+      <c r="D52" t="s">
+        <v>20</v>
+      </c>
+      <c r="E52" t="s">
+        <v>40</v>
+      </c>
+      <c r="F52" t="s">
+        <v>40</v>
+      </c>
+      <c r="G52">
+        <v>8645432</v>
+      </c>
+      <c r="H52" t="s">
+        <v>41</v>
+      </c>
+      <c r="I52" t="s">
+        <v>31</v>
+      </c>
+      <c r="J52" t="s">
+        <v>24</v>
+      </c>
+      <c r="K52" t="s">
+        <v>25</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <v>32000</v>
+      </c>
+      <c r="N52" s="1">
+        <v>44621</v>
+      </c>
+      <c r="O52" t="s">
+        <v>74</v>
+      </c>
+      <c r="P52" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q52">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" t="s">
+        <v>59</v>
+      </c>
+      <c r="D53" t="s">
+        <v>20</v>
+      </c>
+      <c r="E53" t="s">
+        <v>36</v>
+      </c>
+      <c r="F53" t="s">
+        <v>36</v>
+      </c>
+      <c r="G53">
+        <v>8645433</v>
+      </c>
+      <c r="H53" t="s">
+        <v>41</v>
+      </c>
+      <c r="I53" t="s">
+        <v>37</v>
+      </c>
+      <c r="J53" t="s">
+        <v>32</v>
+      </c>
+      <c r="K53" t="s">
+        <v>33</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>33000</v>
+      </c>
+      <c r="N53" s="1">
+        <v>44621</v>
+      </c>
+      <c r="O53" t="s">
+        <v>74</v>
+      </c>
+      <c r="P53" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q53">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B54" t="s">
+        <v>48</v>
+      </c>
+      <c r="C54" t="s">
+        <v>49</v>
+      </c>
+      <c r="D54" t="s">
+        <v>20</v>
+      </c>
+      <c r="E54" t="s">
+        <v>18</v>
+      </c>
+      <c r="F54" t="s">
+        <v>18</v>
+      </c>
+      <c r="G54">
+        <v>8645434</v>
+      </c>
+      <c r="H54" t="s">
+        <v>41</v>
+      </c>
+      <c r="I54" t="s">
+        <v>45</v>
+      </c>
+      <c r="J54" t="s">
+        <v>24</v>
+      </c>
+      <c r="K54" t="s">
+        <v>62</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>34000</v>
+      </c>
+      <c r="N54" s="1">
+        <v>44621</v>
+      </c>
+      <c r="O54" t="s">
+        <v>74</v>
+      </c>
+      <c r="P54" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q54">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>17</v>
+      </c>
+      <c r="B55" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55" t="s">
+        <v>51</v>
+      </c>
+      <c r="D55" t="s">
+        <v>20</v>
+      </c>
+      <c r="E55" t="s">
+        <v>21</v>
+      </c>
+      <c r="F55" t="s">
+        <v>21</v>
+      </c>
+      <c r="G55">
+        <v>8645435</v>
+      </c>
+      <c r="H55" t="s">
+        <v>22</v>
+      </c>
+      <c r="I55" t="s">
+        <v>31</v>
+      </c>
+      <c r="J55" t="s">
+        <v>24</v>
+      </c>
+      <c r="K55" t="s">
+        <v>25</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>35000</v>
+      </c>
+      <c r="N55" s="1">
+        <v>44621</v>
+      </c>
+      <c r="O55" t="s">
+        <v>74</v>
+      </c>
+      <c r="P55" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q55">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>17</v>
+      </c>
+      <c r="B56" t="s">
+        <v>38</v>
+      </c>
+      <c r="C56" t="s">
+        <v>39</v>
+      </c>
+      <c r="D56" t="s">
+        <v>20</v>
+      </c>
+      <c r="E56" t="s">
+        <v>40</v>
+      </c>
+      <c r="F56" t="s">
+        <v>40</v>
+      </c>
+      <c r="G56">
+        <v>8645436</v>
+      </c>
+      <c r="H56" t="s">
+        <v>41</v>
+      </c>
+      <c r="I56" t="s">
+        <v>37</v>
+      </c>
+      <c r="J56" t="s">
+        <v>24</v>
+      </c>
+      <c r="K56" t="s">
+        <v>43</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56">
+        <v>36000</v>
+      </c>
+      <c r="N56" s="1">
+        <v>44621</v>
+      </c>
+      <c r="O56" t="s">
+        <v>74</v>
+      </c>
+      <c r="P56" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q56">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>17</v>
+      </c>
+      <c r="B57" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57" t="s">
+        <v>29</v>
+      </c>
+      <c r="D57" t="s">
+        <v>20</v>
+      </c>
+      <c r="E57" t="s">
+        <v>36</v>
+      </c>
+      <c r="F57" t="s">
+        <v>36</v>
+      </c>
+      <c r="G57">
+        <v>8645437</v>
+      </c>
+      <c r="H57" t="s">
+        <v>22</v>
+      </c>
+      <c r="I57" t="s">
+        <v>42</v>
+      </c>
+      <c r="J57" t="s">
+        <v>24</v>
+      </c>
+      <c r="K57" t="s">
+        <v>54</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57">
+        <v>37000</v>
+      </c>
+      <c r="N57" s="1">
+        <v>44621</v>
+      </c>
+      <c r="O57" t="s">
+        <v>74</v>
+      </c>
+      <c r="P57" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q57">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>17</v>
+      </c>
+      <c r="B58" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" t="s">
+        <v>64</v>
+      </c>
+      <c r="D58" t="s">
+        <v>20</v>
+      </c>
+      <c r="E58" t="s">
+        <v>30</v>
+      </c>
+      <c r="F58" t="s">
+        <v>30</v>
+      </c>
+      <c r="G58">
+        <v>8645438</v>
+      </c>
+      <c r="H58" t="s">
+        <v>41</v>
+      </c>
+      <c r="I58" t="s">
+        <v>23</v>
+      </c>
+      <c r="J58" t="s">
+        <v>32</v>
+      </c>
+      <c r="K58" t="s">
+        <v>62</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>38000</v>
+      </c>
+      <c r="N58" s="1">
+        <v>44621</v>
+      </c>
+      <c r="O58" t="s">
+        <v>74</v>
+      </c>
+      <c r="P58" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q58">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>17</v>
+      </c>
+      <c r="B59" t="s">
+        <v>55</v>
+      </c>
+      <c r="C59" t="s">
+        <v>56</v>
+      </c>
+      <c r="D59" t="s">
+        <v>20</v>
+      </c>
+      <c r="E59" t="s">
+        <v>21</v>
+      </c>
+      <c r="F59" t="s">
+        <v>21</v>
+      </c>
+      <c r="G59">
+        <v>8645439</v>
+      </c>
+      <c r="H59" t="s">
+        <v>22</v>
+      </c>
+      <c r="I59" t="s">
+        <v>45</v>
+      </c>
+      <c r="J59" t="s">
+        <v>24</v>
+      </c>
+      <c r="K59" t="s">
+        <v>33</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <v>39000</v>
+      </c>
+      <c r="N59" s="1">
+        <v>44621</v>
+      </c>
+      <c r="O59" t="s">
+        <v>74</v>
+      </c>
+      <c r="P59" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q59">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>72</v>
+      </c>
+      <c r="B60" t="s">
+        <v>55</v>
+      </c>
+      <c r="C60" t="s">
+        <v>56</v>
+      </c>
+      <c r="D60" t="s">
+        <v>20</v>
+      </c>
+      <c r="E60" t="s">
+        <v>21</v>
+      </c>
+      <c r="F60" t="s">
+        <v>21</v>
+      </c>
+      <c r="G60">
+        <v>8645420</v>
+      </c>
+      <c r="H60" t="s">
+        <v>22</v>
+      </c>
+      <c r="I60" t="s">
+        <v>23</v>
+      </c>
+      <c r="J60" t="s">
+        <v>24</v>
+      </c>
+      <c r="K60" t="s">
+        <v>25</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60">
+        <v>20000</v>
+      </c>
+      <c r="N60" s="1">
+        <v>44621</v>
+      </c>
+      <c r="O60" t="s">
+        <v>74</v>
+      </c>
+      <c r="P60" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q60">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>72</v>
+      </c>
+      <c r="B61" t="s">
+        <v>50</v>
+      </c>
+      <c r="C61" t="s">
+        <v>51</v>
+      </c>
+      <c r="D61" t="s">
+        <v>20</v>
+      </c>
+      <c r="E61" t="s">
+        <v>30</v>
+      </c>
+      <c r="F61" t="s">
+        <v>30</v>
+      </c>
+      <c r="G61">
+        <v>8645421</v>
+      </c>
+      <c r="H61" t="s">
+        <v>41</v>
+      </c>
+      <c r="I61" t="s">
+        <v>31</v>
+      </c>
+      <c r="J61" t="s">
+        <v>32</v>
+      </c>
+      <c r="K61" t="s">
+        <v>43</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>21000</v>
+      </c>
+      <c r="N61" s="1">
+        <v>44621</v>
+      </c>
+      <c r="O61" t="s">
+        <v>74</v>
+      </c>
+      <c r="P61" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q61">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>72</v>
+      </c>
+      <c r="B62" t="s">
+        <v>70</v>
+      </c>
+      <c r="C62" t="s">
+        <v>71</v>
+      </c>
+      <c r="D62" t="s">
+        <v>20</v>
+      </c>
+      <c r="E62" t="s">
+        <v>36</v>
+      </c>
+      <c r="F62" t="s">
+        <v>36</v>
+      </c>
+      <c r="G62">
+        <v>8645422</v>
+      </c>
+      <c r="H62" t="s">
+        <v>22</v>
+      </c>
+      <c r="I62" t="s">
+        <v>37</v>
+      </c>
+      <c r="J62" t="s">
+        <v>24</v>
+      </c>
+      <c r="K62" t="s">
+        <v>54</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62">
+        <v>22000</v>
+      </c>
+      <c r="N62" s="1">
+        <v>44621</v>
+      </c>
+      <c r="O62" t="s">
+        <v>74</v>
+      </c>
+      <c r="P62" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q62">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>72</v>
+      </c>
+      <c r="B63" t="s">
+        <v>46</v>
+      </c>
+      <c r="C63" t="s">
+        <v>47</v>
+      </c>
+      <c r="D63" t="s">
+        <v>20</v>
+      </c>
+      <c r="E63" t="s">
+        <v>40</v>
+      </c>
+      <c r="F63" t="s">
+        <v>40</v>
+      </c>
+      <c r="G63">
+        <v>8645423</v>
+      </c>
+      <c r="H63" t="s">
+        <v>41</v>
+      </c>
+      <c r="I63" t="s">
+        <v>45</v>
+      </c>
+      <c r="J63" t="s">
+        <v>24</v>
+      </c>
+      <c r="K63" t="s">
+        <v>62</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63">
+        <v>23000</v>
+      </c>
+      <c r="N63" s="1">
+        <v>44621</v>
+      </c>
+      <c r="O63" t="s">
+        <v>74</v>
+      </c>
+      <c r="P63" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q63">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>72</v>
+      </c>
+      <c r="B64" t="s">
+        <v>52</v>
+      </c>
+      <c r="C64" t="s">
+        <v>75</v>
+      </c>
+      <c r="D64" t="s">
+        <v>20</v>
+      </c>
+      <c r="E64" t="s">
+        <v>21</v>
+      </c>
+      <c r="F64" t="s">
+        <v>21</v>
+      </c>
+      <c r="G64">
+        <v>8645424</v>
+      </c>
+      <c r="H64" t="s">
+        <v>22</v>
+      </c>
+      <c r="I64" t="s">
+        <v>42</v>
+      </c>
+      <c r="J64" t="s">
+        <v>32</v>
+      </c>
+      <c r="K64" t="s">
+        <v>33</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>24000</v>
+      </c>
+      <c r="N64" s="1">
+        <v>44621</v>
+      </c>
+      <c r="O64" t="s">
+        <v>74</v>
+      </c>
+      <c r="P64" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q64">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>72</v>
+      </c>
+      <c r="B65" t="s">
+        <v>28</v>
+      </c>
+      <c r="C65" t="s">
+        <v>29</v>
+      </c>
+      <c r="D65" t="s">
+        <v>20</v>
+      </c>
+      <c r="E65" t="s">
+        <v>30</v>
+      </c>
+      <c r="F65" t="s">
+        <v>30</v>
+      </c>
+      <c r="G65">
+        <v>8645425</v>
+      </c>
+      <c r="H65" t="s">
+        <v>41</v>
+      </c>
+      <c r="I65" t="s">
+        <v>23</v>
+      </c>
+      <c r="J65" t="s">
+        <v>24</v>
+      </c>
+      <c r="K65" t="s">
+        <v>25</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>25000</v>
+      </c>
+      <c r="N65" s="1">
+        <v>44621</v>
+      </c>
+      <c r="O65" t="s">
+        <v>74</v>
+      </c>
+      <c r="P65" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q65">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>72</v>
+      </c>
+      <c r="B66" t="s">
+        <v>48</v>
+      </c>
+      <c r="C66" t="s">
+        <v>49</v>
+      </c>
+      <c r="D66" t="s">
+        <v>20</v>
+      </c>
+      <c r="E66" t="s">
+        <v>21</v>
+      </c>
+      <c r="F66" t="s">
+        <v>21</v>
+      </c>
+      <c r="G66">
+        <v>8645426</v>
+      </c>
+      <c r="H66" t="s">
+        <v>41</v>
+      </c>
+      <c r="I66" t="s">
+        <v>31</v>
+      </c>
+      <c r="J66" t="s">
+        <v>24</v>
+      </c>
+      <c r="K66" t="s">
+        <v>43</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66">
+        <v>26000</v>
+      </c>
+      <c r="N66" s="1">
+        <v>44621</v>
+      </c>
+      <c r="O66" t="s">
+        <v>74</v>
+      </c>
+      <c r="P66" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q66">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67" t="s">
+        <v>60</v>
+      </c>
+      <c r="C67" t="s">
+        <v>61</v>
+      </c>
+      <c r="D67" t="s">
+        <v>20</v>
+      </c>
+      <c r="E67" t="s">
+        <v>40</v>
+      </c>
+      <c r="F67" t="s">
+        <v>40</v>
+      </c>
+      <c r="G67">
+        <v>8645427</v>
+      </c>
+      <c r="H67" t="s">
+        <v>22</v>
+      </c>
+      <c r="I67" t="s">
+        <v>37</v>
+      </c>
+      <c r="J67" t="s">
+        <v>24</v>
+      </c>
+      <c r="K67" t="s">
+        <v>33</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="M67">
+        <v>27000</v>
+      </c>
+      <c r="N67" s="1">
+        <v>44621</v>
+      </c>
+      <c r="O67" t="s">
+        <v>74</v>
+      </c>
+      <c r="P67" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q67">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68" t="s">
+        <v>36</v>
+      </c>
+      <c r="C68" t="s">
+        <v>67</v>
+      </c>
+      <c r="D68" t="s">
+        <v>20</v>
+      </c>
+      <c r="E68" t="s">
+        <v>30</v>
+      </c>
+      <c r="F68" t="s">
+        <v>30</v>
+      </c>
+      <c r="G68">
+        <v>8645428</v>
+      </c>
+      <c r="H68" t="s">
+        <v>41</v>
+      </c>
+      <c r="I68" t="s">
+        <v>31</v>
+      </c>
+      <c r="J68" t="s">
+        <v>24</v>
+      </c>
+      <c r="K68" t="s">
+        <v>62</v>
+      </c>
+      <c r="L68">
+        <v>1</v>
+      </c>
+      <c r="M68">
+        <v>28000</v>
+      </c>
+      <c r="N68" s="1">
+        <v>44621</v>
+      </c>
+      <c r="O68" t="s">
+        <v>74</v>
+      </c>
+      <c r="P68" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q68">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69" t="s">
+        <v>68</v>
+      </c>
+      <c r="C69" t="s">
+        <v>69</v>
+      </c>
+      <c r="D69" t="s">
+        <v>20</v>
+      </c>
+      <c r="E69" t="s">
+        <v>18</v>
+      </c>
+      <c r="F69" t="s">
+        <v>18</v>
+      </c>
+      <c r="G69">
+        <v>8645429</v>
+      </c>
+      <c r="H69" t="s">
+        <v>22</v>
+      </c>
+      <c r="I69" t="s">
+        <v>37</v>
+      </c>
+      <c r="J69" t="s">
+        <v>24</v>
+      </c>
+      <c r="K69" t="s">
+        <v>54</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+      <c r="M69">
+        <v>29000</v>
+      </c>
+      <c r="N69" s="1">
+        <v>44621</v>
+      </c>
+      <c r="O69" t="s">
+        <v>74</v>
+      </c>
+      <c r="P69" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q69">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" t="s">
+        <v>76</v>
+      </c>
+      <c r="C70" t="s">
+        <v>77</v>
+      </c>
+      <c r="D70" t="s">
+        <v>20</v>
+      </c>
+      <c r="E70" t="s">
+        <v>21</v>
+      </c>
+      <c r="F70" t="s">
+        <v>21</v>
+      </c>
+      <c r="G70">
+        <v>8645430</v>
+      </c>
+      <c r="H70" t="s">
+        <v>22</v>
+      </c>
+      <c r="I70" t="s">
+        <v>45</v>
+      </c>
+      <c r="J70" t="s">
+        <v>32</v>
+      </c>
+      <c r="K70" t="s">
+        <v>33</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>30000</v>
+      </c>
+      <c r="N70" s="1">
+        <v>44621</v>
+      </c>
+      <c r="O70" t="s">
+        <v>74</v>
+      </c>
+      <c r="P70" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q70">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" t="s">
+        <v>46</v>
+      </c>
+      <c r="C71" t="s">
+        <v>47</v>
+      </c>
+      <c r="D71" t="s">
+        <v>20</v>
+      </c>
+      <c r="E71" t="s">
+        <v>36</v>
+      </c>
+      <c r="F71" t="s">
+        <v>36</v>
+      </c>
+      <c r="G71">
+        <v>8645431</v>
+      </c>
+      <c r="H71" t="s">
+        <v>41</v>
+      </c>
+      <c r="I71" t="s">
+        <v>23</v>
+      </c>
+      <c r="J71" t="s">
+        <v>24</v>
+      </c>
+      <c r="K71" t="s">
+        <v>43</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+      <c r="M71">
+        <v>31000</v>
+      </c>
+      <c r="N71" s="1">
+        <v>44621</v>
+      </c>
+      <c r="O71" t="s">
+        <v>74</v>
+      </c>
+      <c r="P71" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q71">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72" t="s">
+        <v>70</v>
+      </c>
+      <c r="C72" t="s">
+        <v>71</v>
+      </c>
+      <c r="D72" t="s">
+        <v>20</v>
+      </c>
+      <c r="E72" t="s">
+        <v>40</v>
+      </c>
+      <c r="F72" t="s">
+        <v>40</v>
+      </c>
+      <c r="G72">
+        <v>8645432</v>
+      </c>
+      <c r="H72" t="s">
+        <v>41</v>
+      </c>
+      <c r="I72" t="s">
+        <v>31</v>
+      </c>
+      <c r="J72" t="s">
+        <v>24</v>
+      </c>
+      <c r="K72" t="s">
+        <v>25</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="M72">
+        <v>32000</v>
+      </c>
+      <c r="N72" s="1">
+        <v>44621</v>
+      </c>
+      <c r="O72" t="s">
+        <v>74</v>
+      </c>
+      <c r="P72" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q72">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>21</v>
+      </c>
+      <c r="C73" t="s">
+        <v>59</v>
+      </c>
+      <c r="D73" t="s">
+        <v>20</v>
+      </c>
+      <c r="E73" t="s">
+        <v>36</v>
+      </c>
+      <c r="F73" t="s">
+        <v>36</v>
+      </c>
+      <c r="G73">
+        <v>8645433</v>
+      </c>
+      <c r="H73" t="s">
+        <v>41</v>
+      </c>
+      <c r="I73" t="s">
+        <v>37</v>
+      </c>
+      <c r="J73" t="s">
+        <v>32</v>
+      </c>
+      <c r="K73" t="s">
+        <v>33</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>33000</v>
+      </c>
+      <c r="N73" s="1">
+        <v>44621</v>
+      </c>
+      <c r="O73" t="s">
+        <v>74</v>
+      </c>
+      <c r="P73" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q73">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>48</v>
+      </c>
+      <c r="C74" t="s">
+        <v>49</v>
+      </c>
+      <c r="D74" t="s">
+        <v>20</v>
+      </c>
+      <c r="E74" t="s">
+        <v>18</v>
+      </c>
+      <c r="F74" t="s">
+        <v>18</v>
+      </c>
+      <c r="G74">
+        <v>8645434</v>
+      </c>
+      <c r="H74" t="s">
+        <v>41</v>
+      </c>
+      <c r="I74" t="s">
+        <v>45</v>
+      </c>
+      <c r="J74" t="s">
+        <v>24</v>
+      </c>
+      <c r="K74" t="s">
+        <v>62</v>
+      </c>
+      <c r="L74">
+        <v>1</v>
+      </c>
+      <c r="M74">
+        <v>34000</v>
+      </c>
+      <c r="N74" s="1">
+        <v>44621</v>
+      </c>
+      <c r="O74" t="s">
+        <v>74</v>
+      </c>
+      <c r="P74" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q74">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>72</v>
+      </c>
+      <c r="B75" t="s">
+        <v>50</v>
+      </c>
+      <c r="C75" t="s">
+        <v>51</v>
+      </c>
+      <c r="D75" t="s">
+        <v>20</v>
+      </c>
+      <c r="E75" t="s">
+        <v>21</v>
+      </c>
+      <c r="F75" t="s">
+        <v>21</v>
+      </c>
+      <c r="G75">
+        <v>8645435</v>
+      </c>
+      <c r="H75" t="s">
+        <v>22</v>
+      </c>
+      <c r="I75" t="s">
+        <v>31</v>
+      </c>
+      <c r="J75" t="s">
+        <v>24</v>
+      </c>
+      <c r="K75" t="s">
+        <v>25</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
+      <c r="M75">
+        <v>35000</v>
+      </c>
+      <c r="N75" s="1">
+        <v>44621</v>
+      </c>
+      <c r="O75" t="s">
+        <v>74</v>
+      </c>
+      <c r="P75" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q75">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>72</v>
+      </c>
+      <c r="B76" t="s">
+        <v>38</v>
+      </c>
+      <c r="C76" t="s">
+        <v>39</v>
+      </c>
+      <c r="D76" t="s">
+        <v>20</v>
+      </c>
+      <c r="E76" t="s">
+        <v>40</v>
+      </c>
+      <c r="F76" t="s">
+        <v>40</v>
+      </c>
+      <c r="G76">
+        <v>8645436</v>
+      </c>
+      <c r="H76" t="s">
+        <v>41</v>
+      </c>
+      <c r="I76" t="s">
+        <v>37</v>
+      </c>
+      <c r="J76" t="s">
+        <v>24</v>
+      </c>
+      <c r="K76" t="s">
+        <v>43</v>
+      </c>
+      <c r="L76">
+        <v>1</v>
+      </c>
+      <c r="M76">
+        <v>36000</v>
+      </c>
+      <c r="N76" s="1">
+        <v>44621</v>
+      </c>
+      <c r="O76" t="s">
+        <v>74</v>
+      </c>
+      <c r="P76" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q76">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>72</v>
+      </c>
+      <c r="B77" t="s">
+        <v>28</v>
+      </c>
+      <c r="C77" t="s">
+        <v>29</v>
+      </c>
+      <c r="D77" t="s">
+        <v>20</v>
+      </c>
+      <c r="E77" t="s">
+        <v>36</v>
+      </c>
+      <c r="F77" t="s">
+        <v>36</v>
+      </c>
+      <c r="G77">
+        <v>8645437</v>
+      </c>
+      <c r="H77" t="s">
+        <v>22</v>
+      </c>
+      <c r="I77" t="s">
+        <v>42</v>
+      </c>
+      <c r="J77" t="s">
+        <v>24</v>
+      </c>
+      <c r="K77" t="s">
+        <v>54</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>37000</v>
+      </c>
+      <c r="N77" s="1">
+        <v>44621</v>
+      </c>
+      <c r="O77" t="s">
+        <v>74</v>
+      </c>
+      <c r="P77" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q77">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>72</v>
+      </c>
+      <c r="B78" t="s">
+        <v>20</v>
+      </c>
+      <c r="C78" t="s">
+        <v>64</v>
+      </c>
+      <c r="D78" t="s">
+        <v>20</v>
+      </c>
+      <c r="E78" t="s">
+        <v>30</v>
+      </c>
+      <c r="F78" t="s">
+        <v>30</v>
+      </c>
+      <c r="G78">
+        <v>8645438</v>
+      </c>
+      <c r="H78" t="s">
+        <v>41</v>
+      </c>
+      <c r="I78" t="s">
+        <v>23</v>
+      </c>
+      <c r="J78" t="s">
+        <v>32</v>
+      </c>
+      <c r="K78" t="s">
+        <v>62</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>38000</v>
+      </c>
+      <c r="N78" s="1">
+        <v>44621</v>
+      </c>
+      <c r="O78" t="s">
+        <v>74</v>
+      </c>
+      <c r="P78" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q78">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>72</v>
+      </c>
+      <c r="B79" t="s">
+        <v>55</v>
+      </c>
+      <c r="C79" t="s">
+        <v>56</v>
+      </c>
+      <c r="D79" t="s">
+        <v>20</v>
+      </c>
+      <c r="E79" t="s">
+        <v>21</v>
+      </c>
+      <c r="F79" t="s">
+        <v>21</v>
+      </c>
+      <c r="G79">
+        <v>8645439</v>
+      </c>
+      <c r="H79" t="s">
+        <v>22</v>
+      </c>
+      <c r="I79" t="s">
+        <v>45</v>
+      </c>
+      <c r="J79" t="s">
+        <v>24</v>
+      </c>
+      <c r="K79" t="s">
+        <v>33</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="M79">
+        <v>39000</v>
+      </c>
+      <c r="N79" s="1">
+        <v>44621</v>
+      </c>
+      <c r="O79" t="s">
+        <v>74</v>
+      </c>
+      <c r="P79" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q79">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>72</v>
+      </c>
+      <c r="B80" t="s">
+        <v>55</v>
+      </c>
+      <c r="C80" t="s">
+        <v>56</v>
+      </c>
+      <c r="D80" t="s">
+        <v>20</v>
+      </c>
+      <c r="E80" t="s">
+        <v>21</v>
+      </c>
+      <c r="F80" t="s">
+        <v>21</v>
+      </c>
+      <c r="G80">
+        <v>8645439</v>
+      </c>
+      <c r="H80" t="s">
+        <v>22</v>
+      </c>
+      <c r="I80" t="s">
+        <v>45</v>
+      </c>
+      <c r="J80" t="s">
+        <v>24</v>
+      </c>
+      <c r="K80" t="s">
+        <v>33</v>
+      </c>
+      <c r="L80">
+        <v>1</v>
+      </c>
+      <c r="M80">
+        <v>39000</v>
+      </c>
+      <c r="N80" s="1">
+        <v>44621</v>
+      </c>
+      <c r="O80" t="s">
+        <v>74</v>
+      </c>
+      <c r="P80" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q80">
+        <v>3400</v>
       </c>
     </row>
   </sheetData>
